--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.29</v>
+        <v>3.08</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>3.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>12/08/2023 15:21</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.41</v>
+        <v>4.03</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4.03</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.27</v>
+        <v>5.49</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.34</v>
+        <v>4.94</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.21</v>
+        <v>8.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>7.81</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.17</v>
+        <v>2.67</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>7.45</v>
+        <v>2.61</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.99</v>
+        <v>3.56</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.54</v>
+        <v>4.22</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.72</v>
+        <v>4.17</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.14</v>
+        <v>7.45</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-aberystwyth/jTasWjCH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>1.56</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.54</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.57</v>
+        <v>4.54</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.67</v>
+        <v>4.72</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.61</v>
+        <v>6.14</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-aberystwyth/jTasWjCH/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.68</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.61</v>
+        <v>2.48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.64</v>
+        <v>3.28</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>2.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>3.68</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.48</v>
+        <v>3.61</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.28</v>
+        <v>3.64</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.84</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.2</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 11:10</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>4.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.83</v>
+        <v>5.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.14</v>
+        <v>5.85</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>9.76</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>4.25</v>
+        <v>2.31</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5.47</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 13:33</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>2.78</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.44</v>
+        <v>4.25</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.32</v>
+        <v>5.47</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>09/09/2023 11:10</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.25</v>
+        <v>3.73</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>5.06</v>
+        <v>4.2</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.85</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>9.76</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.43</v>
+        <v>4.2</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 13:33</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.06</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 14:51</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>17.82</v>
+        <v>3.55</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>25.53</v>
+        <v>4.39</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>26.62</v>
+        <v>7.45</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-cardiff-metropolitan-university/Cvv4y75f/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.06</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>1.06</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 14:51</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.46</v>
+        <v>17.82</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>16.8</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>25.53</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.07</v>
+        <v>26.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.58</v>
+        <v>3.06</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.59</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.92</v>
+        <v>3.46</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.98</v>
+        <v>2.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.11</v>
+        <v>4.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.66</v>
+        <v>4.7</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.31</v>
+        <v>4.98</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,232 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>16/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>14/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="R41" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>14/09/2023 14:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="inlineStr">
+      <c r="T41" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R41" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>14/09/2023 14:43</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-cardiff-metropolitan-university/Cvv4y75f/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45191.86458333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-tns/8QN6eSdQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:50</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-penybont/E3O2d8sK/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.41</v>
+        <v>4.03</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>1.29</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4.03</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.27</v>
+        <v>5.49</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.34</v>
+        <v>4.94</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.21</v>
+        <v>8.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>3.08</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>3.41</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>12/08/2023 15:21</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.35</v>
+        <v>1.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.54</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.57</v>
+        <v>4.54</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.67</v>
+        <v>4.72</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.61</v>
+        <v>6.14</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-aberystwyth/jTasWjCH/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.17</v>
+        <v>2.67</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>7.45</v>
+        <v>2.61</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.99</v>
+        <v>3.56</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.54</v>
+        <v>4.22</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.72</v>
+        <v>4.17</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6.14</v>
+        <v>7.45</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-aberystwyth/jTasWjCH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.68</v>
+        <v>4.07</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:38</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.07</v>
+        <v>3.44</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.41</v>
+        <v>3.21</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:37</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:38</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-connahs-q/vofdmhsh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-penybont/M9q1nCdb/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.07</v>
+        <v>2.68</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:38</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:37</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:38</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-penybont/M9q1nCdb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-connahs-q/vofdmhsh/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>20.77</v>
+        <v>3.52</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>27.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>26.13</v>
+        <v>2.84</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>38.82</v>
+        <v>3.07</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.84</v>
+        <v>4.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.07</v>
+        <v>4.8</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.63</v>
+        <v>20.77</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.62</v>
+        <v>27.47</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.25</v>
+        <v>26.13</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.8</v>
+        <v>38.82</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>14.92</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>24.8</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.89</v>
+        <v>10.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.97</v>
+        <v>13.41</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>4.84</v>
+        <v>1.11</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.18</v>
+        <v>1.08</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.92</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>24.8</v>
+        <v>1.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>10.28</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>13.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.11</v>
+        <v>4.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.08</v>
+        <v>5.09</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,374 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-penybont/E3O2d8sK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45192.76041666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-pontypridd-united/xdtVk6Km/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.52</v>
+        <v>20.77</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.66</v>
+        <v>27.47</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.84</v>
+        <v>26.13</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.07</v>
+        <v>38.82</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.25</v>
+        <v>2.84</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>20.77</v>
+        <v>3.63</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>27.47</v>
+        <v>3.62</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>26.13</v>
+        <v>4.25</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>38.82</v>
+        <v>4.8</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -2137,30 +2137,30 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>2.48</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2168,15 +2168,15 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.89</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -2184,15 +2184,15 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.18</v>
+        <v>2.78</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>14.92</v>
+        <v>3.68</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>24.8</v>
+        <v>3.61</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>10.28</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>13.41</v>
+        <v>3.79</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.08</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>14.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.79</v>
+        <v>24.8</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>10.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.32</v>
+        <v>13.41</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.21</v>
+        <v>1.11</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.09</v>
+        <v>1.08</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2413,30 +2413,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.48</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,15 +2444,15 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.28</v>
+        <v>3.89</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,15 +2460,15 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.78</v>
+        <v>6.18</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.68</v>
+        <v>1.73</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.61</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>4.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>5.09</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,466 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-pontypridd-united/xdtVk6Km/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>26/09/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>26/09/2023 11:21</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45195.86458333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:47</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>25/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5241,6 +5241,98 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45196.86458333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>26/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>26/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>26/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-aberystwyth/IF1445Zt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
